--- a/data/trans_orig/CoPsoQ_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ_R2-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>91854</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78975</v>
+        <v>79525</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>105005</v>
+        <v>106661</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5170214856511086</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4445305558751287</v>
+        <v>0.4476274828436914</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5910441647162216</v>
+        <v>0.6003680463082475</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -764,19 +764,19 @@
         <v>48983</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36961</v>
+        <v>37604</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60576</v>
+        <v>61318</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3683935302275666</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2779766255611105</v>
+        <v>0.2828101266925181</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4555769437108239</v>
+        <v>0.4611608656401221</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>132</v>
@@ -785,19 +785,19 @@
         <v>140837</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>124574</v>
+        <v>121088</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>158928</v>
+        <v>158536</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4534002398829859</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4010434820779489</v>
+        <v>0.3898210631257155</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.511639716748487</v>
+        <v>0.5103768028796489</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>85806</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>72655</v>
+        <v>70999</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98685</v>
+        <v>98135</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4829785143488914</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4089558352837787</v>
+        <v>0.3996319536917525</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5554694441248713</v>
+        <v>0.5523725171563086</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>77</v>
@@ -835,19 +835,19 @@
         <v>83982</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72389</v>
+        <v>71647</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>96004</v>
+        <v>95361</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6316064697724334</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5444230562891762</v>
+        <v>0.53883913435988</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7220233744388895</v>
+        <v>0.7171898733074821</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>161</v>
@@ -856,19 +856,19 @@
         <v>169788</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>151697</v>
+        <v>152089</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>186051</v>
+        <v>189537</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5465997601170142</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4883602832515129</v>
+        <v>0.489623197120351</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5989565179220511</v>
+        <v>0.6101789368742846</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>510147</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>479365</v>
+        <v>479666</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>541499</v>
+        <v>542074</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5706750161289297</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.536241237982833</v>
+        <v>0.536578094826712</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6057470921408064</v>
+        <v>0.6063901065747899</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>297</v>
@@ -981,19 +981,19 @@
         <v>318164</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>295179</v>
+        <v>295045</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>343892</v>
+        <v>342283</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5646103544570944</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5238223358170345</v>
+        <v>0.5235843044267606</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.610268282133582</v>
+        <v>0.6074132425565556</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>790</v>
@@ -1002,19 +1002,19 @@
         <v>828311</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>785044</v>
+        <v>788925</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>865403</v>
+        <v>864755</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5683301644673856</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5386436660182112</v>
+        <v>0.5413062767285445</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5937803061090683</v>
+        <v>0.5933361125552804</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>383789</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>352437</v>
+        <v>351862</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>414571</v>
+        <v>414270</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4293249838710703</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3942529078591938</v>
+        <v>0.3936098934252102</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4637587620171674</v>
+        <v>0.463421905173288</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>229</v>
@@ -1052,19 +1052,19 @@
         <v>245346</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>219618</v>
+        <v>221227</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>268331</v>
+        <v>268465</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4353896455429056</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.389731717866418</v>
+        <v>0.3925867574434443</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4761776641829641</v>
+        <v>0.4764156955732394</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>583</v>
@@ -1073,19 +1073,19 @@
         <v>629135</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>592043</v>
+        <v>592691</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>672402</v>
+        <v>668521</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4316698355326144</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4062196938909314</v>
+        <v>0.4066638874447196</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4613563339817887</v>
+        <v>0.4586937232714555</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>204101</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>185323</v>
+        <v>185981</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>222257</v>
+        <v>223284</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6493434924163857</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5896009632889935</v>
+        <v>0.591693738824484</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7071072818884179</v>
+        <v>0.710372742169737</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>121</v>
@@ -1198,19 +1198,19 @@
         <v>134964</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>118673</v>
+        <v>118998</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>149767</v>
+        <v>150742</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5906454653975847</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5193487817866865</v>
+        <v>0.5207729808688183</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6554271139034865</v>
+        <v>0.6596956879333168</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>306</v>
@@ -1219,19 +1219,19 @@
         <v>339065</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>314424</v>
+        <v>312385</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>364965</v>
+        <v>360686</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6246343228337579</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5792395963834287</v>
+        <v>0.57548362333803</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6723476999363653</v>
+        <v>0.6644642492335692</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>110218</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92062</v>
+        <v>91035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>128996</v>
+        <v>128338</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3506565075836143</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.292892718111582</v>
+        <v>0.289627257830263</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4103990367110065</v>
+        <v>0.4083062611755158</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>83</v>
@@ -1269,19 +1269,19 @@
         <v>93539</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78736</v>
+        <v>77761</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>109830</v>
+        <v>109505</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4093545346024154</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3445728860965134</v>
+        <v>0.340304312066683</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4806512182133135</v>
+        <v>0.4792270191311818</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>182</v>
@@ -1290,19 +1290,19 @@
         <v>203757</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>177857</v>
+        <v>182136</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>228398</v>
+        <v>230437</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3753656771662421</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3276523000636347</v>
+        <v>0.3355357507664309</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4207604036165712</v>
+        <v>0.42451637666197</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>806102</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>767553</v>
+        <v>767074</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>844173</v>
+        <v>843369</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5816388552464071</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5538239386268334</v>
+        <v>0.5534782867867692</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6091088095154771</v>
+        <v>0.6085287758466619</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>464</v>
@@ -1415,19 +1415,19 @@
         <v>502111</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>472274</v>
+        <v>471400</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>533397</v>
+        <v>535839</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5428359247719069</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5105786630657272</v>
+        <v>0.5096340372862053</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5766594397959022</v>
+        <v>0.57929886167561</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1228</v>
@@ -1436,19 +1436,19 @@
         <v>1308213</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1257067</v>
+        <v>1256532</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1354473</v>
+        <v>1353629</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5661072615322678</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5439744519389743</v>
+        <v>0.5437429296050121</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5861255168328399</v>
+        <v>0.5857600492927389</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>579813</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>541742</v>
+        <v>542546</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>618362</v>
+        <v>618841</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4183611447535928</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3908911904845231</v>
+        <v>0.3914712241533384</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4461760613731668</v>
+        <v>0.4465217132132308</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>389</v>
@@ -1486,19 +1486,19 @@
         <v>422867</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>391581</v>
+        <v>389139</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>452704</v>
+        <v>453578</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4571640752280931</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4233405602040978</v>
+        <v>0.4207011383243902</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4894213369342727</v>
+        <v>0.4903659627137948</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>926</v>
@@ -1507,19 +1507,19 @@
         <v>1002680</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>956420</v>
+        <v>957264</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1053826</v>
+        <v>1054361</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4338927384677323</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4138744831671601</v>
+        <v>0.4142399507072611</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4560255480610257</v>
+        <v>0.4562570703949879</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>68437</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57272</v>
+        <v>56486</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>80022</v>
+        <v>80897</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4843442502200331</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4053264134509303</v>
+        <v>0.3997611168766046</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5663286427115699</v>
+        <v>0.5725267732287828</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -1871,19 +1871,19 @@
         <v>32061</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23937</v>
+        <v>24113</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40641</v>
+        <v>41003</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.463791969168682</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.34627271427052</v>
+        <v>0.3488185934792831</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5879147930795607</v>
+        <v>0.5931530495523225</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>95</v>
@@ -1892,19 +1892,19 @@
         <v>100498</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>85005</v>
+        <v>85579</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>115160</v>
+        <v>114689</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.477592534027156</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4039622786683015</v>
+        <v>0.4066918385305804</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5472685076909967</v>
+        <v>0.5450287229782076</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>72862</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>61277</v>
+        <v>60402</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>84027</v>
+        <v>84813</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5156557497799669</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4336713572884294</v>
+        <v>0.4274732267712175</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5946735865490695</v>
+        <v>0.6002388831233954</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -1942,19 +1942,19 @@
         <v>37067</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28487</v>
+        <v>28125</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45191</v>
+        <v>45015</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.536208030831318</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4120852069204396</v>
+        <v>0.4068469504476774</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6537272857294802</v>
+        <v>0.6511814065207169</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>106</v>
@@ -1963,19 +1963,19 @@
         <v>109929</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>95267</v>
+        <v>95738</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>125422</v>
+        <v>124848</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.522407465972844</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4527314923090031</v>
+        <v>0.4549712770217925</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5960377213316985</v>
+        <v>0.5933081614694197</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>509064</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>478211</v>
+        <v>476037</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>539833</v>
+        <v>537144</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.551412037948796</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5179922379602472</v>
+        <v>0.5156369812482368</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5847399705935937</v>
+        <v>0.5818275031612717</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>360</v>
@@ -2088,19 +2088,19 @@
         <v>369784</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>342559</v>
+        <v>344721</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>396195</v>
+        <v>393940</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5684242392703855</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.526573789638574</v>
+        <v>0.529898053815975</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6090219718875099</v>
+        <v>0.6055561368018347</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>840</v>
@@ -2109,19 +2109,19 @@
         <v>878849</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>841239</v>
+        <v>833835</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>919903</v>
+        <v>915521</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5584444213379709</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5345462375976403</v>
+        <v>0.5298411649888821</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5845312495794907</v>
+        <v>0.5817464783740393</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>414137</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>383368</v>
+        <v>386057</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>444990</v>
+        <v>447164</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.448587962051204</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4152600294064062</v>
+        <v>0.4181724968387278</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4820077620397528</v>
+        <v>0.4843630187517632</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>276</v>
@@ -2159,19 +2159,19 @@
         <v>280759</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>254348</v>
+        <v>256603</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>307984</v>
+        <v>305822</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4315757607296145</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3909780281124902</v>
+        <v>0.3944438631981653</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4734262103614261</v>
+        <v>0.470101946184025</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>659</v>
@@ -2180,19 +2180,19 @@
         <v>694896</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>653842</v>
+        <v>658224</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>732506</v>
+        <v>739910</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.441555578662029</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4154687504205093</v>
+        <v>0.4182535216259608</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4654537624023597</v>
+        <v>0.4701588350111179</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>197928</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>176393</v>
+        <v>177529</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>215582</v>
+        <v>217268</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5680447005467072</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5062390710436352</v>
+        <v>0.5094997244272411</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6187105435458552</v>
+        <v>0.6235498710475116</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>161</v>
@@ -2305,19 +2305,19 @@
         <v>164495</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>146647</v>
+        <v>144476</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>182156</v>
+        <v>181529</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5332905662167388</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4754266115892332</v>
+        <v>0.4683887601769603</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5905462954743973</v>
+        <v>0.5885134100846958</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>343</v>
@@ -2326,19 +2326,19 @@
         <v>362423</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>336607</v>
+        <v>335324</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>388559</v>
+        <v>388922</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5517253729079971</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5124241357205088</v>
+        <v>0.5104717365638965</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5915116386697248</v>
+        <v>0.5920653968739301</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>150510</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>132856</v>
+        <v>131170</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>172045</v>
+        <v>170909</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4319552994532928</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3812894564541447</v>
+        <v>0.3764501289524885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.493760928956365</v>
+        <v>0.490500275572759</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>138</v>
@@ -2376,19 +2376,19 @@
         <v>143958</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>126297</v>
+        <v>126924</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161806</v>
+        <v>163977</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4667094337832612</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4094537045256026</v>
+        <v>0.4114865899153041</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5245733884107667</v>
+        <v>0.5316112398230398</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>275</v>
@@ -2397,19 +2397,19 @@
         <v>294468</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>268332</v>
+        <v>267969</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>320284</v>
+        <v>321567</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.448274627092003</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4084883613302751</v>
+        <v>0.4079346031260697</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4875758642794912</v>
+        <v>0.4895282634361034</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>775430</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>736965</v>
+        <v>736094</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>813460</v>
+        <v>811631</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5488067250954894</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5215832235587338</v>
+        <v>0.5209672801527633</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5757224754015332</v>
+        <v>0.574428203455467</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>553</v>
@@ -2522,19 +2522,19 @@
         <v>566341</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>535903</v>
+        <v>535114</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>602238</v>
+        <v>599133</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5508484132985753</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5212429399603222</v>
+        <v>0.5204753984036495</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.585763811623974</v>
+        <v>0.5827432406679827</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1278</v>
@@ -2543,19 +2543,19 @@
         <v>1341771</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1293442</v>
+        <v>1292949</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1396565</v>
+        <v>1392642</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5496666416537865</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5298683654346767</v>
+        <v>0.5296664016134647</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5721133539368397</v>
+        <v>0.5705064383321579</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>637508</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>599478</v>
+        <v>601307</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>675973</v>
+        <v>676844</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4511932749045106</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4242775245984666</v>
+        <v>0.425571796544533</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4784167764412662</v>
+        <v>0.4790327198472367</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>451</v>
@@ -2593,19 +2593,19 @@
         <v>461784</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>425887</v>
+        <v>428992</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>492222</v>
+        <v>493011</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4491515867014248</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4142361883760264</v>
+        <v>0.4172567593320174</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4787570600396779</v>
+        <v>0.4795246015963505</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1040</v>
@@ -2614,19 +2614,19 @@
         <v>1099292</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1044498</v>
+        <v>1048421</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1147621</v>
+        <v>1148114</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4503333583462134</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4278866460631603</v>
+        <v>0.4294935616678421</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4701316345653233</v>
+        <v>0.4703335983865354</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>11488</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5269</v>
+        <v>5966</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19368</v>
+        <v>19709</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.28105698650592</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1288959746195366</v>
+        <v>0.1459642111047352</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4738122135048651</v>
+        <v>0.4821759633538842</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -2978,19 +2978,19 @@
         <v>12210</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8168</v>
+        <v>8288</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16030</v>
+        <v>16320</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5402668286927202</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3613940135393519</v>
+        <v>0.3667352744038421</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7092832066669811</v>
+        <v>0.7221078607747697</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -2999,19 +2999,19 @@
         <v>23698</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16370</v>
+        <v>16050</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32486</v>
+        <v>33250</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.373344709950055</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2578955326487239</v>
+        <v>0.2528475414127642</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.511787131551424</v>
+        <v>0.5238137240950781</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>29388</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21508</v>
+        <v>21167</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35607</v>
+        <v>34910</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7189430134940799</v>
+        <v>0.7189430134940801</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.526187786495135</v>
+        <v>0.5178240366461161</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8711040253804631</v>
+        <v>0.8540357888952648</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -3049,19 +3049,19 @@
         <v>10390</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6570</v>
+        <v>6280</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14432</v>
+        <v>14312</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4597331713072795</v>
+        <v>0.4597331713072796</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2907167933330189</v>
+        <v>0.2778921392252303</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6386059864606481</v>
+        <v>0.6332647255961582</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -3070,19 +3070,19 @@
         <v>39778</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30990</v>
+        <v>30226</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47106</v>
+        <v>47426</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.626655290049945</v>
+        <v>0.6266552900499449</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.488212868448576</v>
+        <v>0.476186275904922</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.742104467351276</v>
+        <v>0.7471524585872358</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>120926</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>100791</v>
+        <v>102302</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>139493</v>
+        <v>142196</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4137709441713072</v>
+        <v>0.4137709441713073</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3448757844662214</v>
+        <v>0.3500457486397444</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4773038134553244</v>
+        <v>0.4865502648017573</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>149</v>
@@ -3195,19 +3195,19 @@
         <v>118804</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>104195</v>
+        <v>105006</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132816</v>
+        <v>134011</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.480019051765892</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4209918543961908</v>
+        <v>0.4242666260478891</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5366305175799879</v>
+        <v>0.5414601140167642</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>249</v>
@@ -3216,19 +3216,19 @@
         <v>239730</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>216608</v>
+        <v>214057</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>265345</v>
+        <v>263054</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4441484668046601</v>
+        <v>0.44414846680466</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4013092845338351</v>
+        <v>0.39658327298651</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4916041411858633</v>
+        <v>0.4873606532722256</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>171327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>152760</v>
+        <v>150057</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>191462</v>
+        <v>189951</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5862290558286928</v>
+        <v>0.586229055828693</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5226961865446758</v>
+        <v>0.5134497351982428</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6551242155337785</v>
+        <v>0.6499542513602558</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>170</v>
@@ -3266,19 +3266,19 @@
         <v>128695</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>114683</v>
+        <v>113488</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>143304</v>
+        <v>142493</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.519980948234108</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4633694824200121</v>
+        <v>0.4585398859832357</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5790081456038091</v>
+        <v>0.5757333739521109</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>311</v>
@@ -3287,19 +3287,19 @@
         <v>300023</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>274408</v>
+        <v>276699</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>323145</v>
+        <v>325696</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5558515331953399</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5083958588141367</v>
+        <v>0.5126393467277744</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5986907154661647</v>
+        <v>0.6034167270134903</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>54064</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41247</v>
+        <v>40603</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68703</v>
+        <v>68614</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3915168946830869</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2986987862961031</v>
+        <v>0.2940358751238251</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4975330212644676</v>
+        <v>0.4968853339868318</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -3412,19 +3412,19 @@
         <v>45977</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36335</v>
+        <v>36242</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54980</v>
+        <v>55427</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4036791373153336</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3190262251015979</v>
+        <v>0.3182043796584256</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4827316238823603</v>
+        <v>0.4866524113614479</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>100</v>
@@ -3433,19 +3433,19 @@
         <v>100040</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>83344</v>
+        <v>84743</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>116637</v>
+        <v>117331</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3970141411624228</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3307538783819689</v>
+        <v>0.3363064611365838</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4628785255273323</v>
+        <v>0.4656310138049657</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>84024</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>69385</v>
+        <v>69474</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>96841</v>
+        <v>97485</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.608483105316913</v>
+        <v>0.6084831053169131</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5024669787355324</v>
+        <v>0.5031146660131683</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7013012137038974</v>
+        <v>0.705964124876175</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>86</v>
@@ -3483,19 +3483,19 @@
         <v>67917</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>58914</v>
+        <v>58467</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>77559</v>
+        <v>77652</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5963208626846664</v>
+        <v>0.5963208626846666</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5172683761176399</v>
+        <v>0.5133475886385519</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6809737748984022</v>
+        <v>0.6817956203415744</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>157</v>
@@ -3504,19 +3504,19 @@
         <v>151942</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>135345</v>
+        <v>134651</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>168638</v>
+        <v>167239</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6029858588375774</v>
+        <v>0.6029858588375773</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5371214744726678</v>
+        <v>0.5343689861950343</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.669246121618031</v>
+        <v>0.6636935388634162</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>186478</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>162315</v>
+        <v>162169</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>212052</v>
+        <v>213167</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3957371549505922</v>
+        <v>0.3957371549505923</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.344458244198092</v>
+        <v>0.3441492397787793</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4500095282735813</v>
+        <v>0.4523759079423374</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>225</v>
@@ -3629,19 +3629,19 @@
         <v>176990</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>158377</v>
+        <v>159722</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>194883</v>
+        <v>195299</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4609221198754569</v>
+        <v>0.4609221198754568</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4124486453974134</v>
+        <v>0.4159517441710456</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5075187279416602</v>
+        <v>0.5086010149513437</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>377</v>
@@ -3650,19 +3650,19 @@
         <v>363469</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>332222</v>
+        <v>331366</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>396940</v>
+        <v>391955</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4250054557645195</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3884677778824311</v>
+        <v>0.3874679848179215</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4641434766418456</v>
+        <v>0.4583140816574485</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>284739</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>259165</v>
+        <v>258050</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>308902</v>
+        <v>309048</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6042628450494079</v>
+        <v>0.6042628450494077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5499904717264186</v>
+        <v>0.5476240920576625</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6555417558019081</v>
+        <v>0.6558507602212208</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>269</v>
@@ -3700,19 +3700,19 @@
         <v>207002</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>189109</v>
+        <v>188693</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>225615</v>
+        <v>224270</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5390778801245432</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4924812720583398</v>
+        <v>0.4913989850486561</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5875513546025867</v>
+        <v>0.5840482558289545</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>503</v>
@@ -3721,19 +3721,19 @@
         <v>491741</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>458270</v>
+        <v>463255</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>522988</v>
+        <v>523844</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5749945442354806</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5358565233581544</v>
+        <v>0.5416859183425515</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6115322221175687</v>
+        <v>0.6125320151820783</v>
       </c>
     </row>
     <row r="15">
